--- a/R/analysis/data/Pt_14_Experimental.xlsx
+++ b/R/analysis/data/Pt_14_Experimental.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0.82</v>
       </c>
       <c r="L3" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.26</v>
@@ -631,16 +631,16 @@
         <v>5.07</v>
       </c>
       <c r="K4" t="n">
-        <v>5.35</v>
+        <v>0.3</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.22</v>
+        <v>3.79</v>
       </c>
       <c r="M4" t="n">
-        <v>4.07</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.12</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>1.04</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.25</v>
+        <v>3.25</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -801,14 +801,14 @@
         <v>1.62</v>
       </c>
       <c r="K7" t="n">
-        <v>4.72</v>
+        <v>0.13</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09</v>
+        <v>3.34</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0.58</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>0.71</v>
@@ -979,16 +979,16 @@
         <v>1.67</v>
       </c>
       <c r="K10" t="n">
-        <v>5.09</v>
+        <v>0.57</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.4</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>3.66</v>
+        <v>0.12</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08</v>
+        <v>2.58</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1100,7 +1100,7 @@
         <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0.96</v>
@@ -1155,10 +1155,10 @@
         <v>1.79</v>
       </c>
       <c r="K13" t="n">
-        <v>6.1</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
-        <v>0.31</v>
+        <v>4.31</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1274,7 +1274,7 @@
         <v>1.79</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.73</v>
@@ -1329,10 +1329,10 @@
         <v>4.58</v>
       </c>
       <c r="K16" t="n">
-        <v>5.71</v>
+        <v>1.19</v>
       </c>
       <c r="L16" t="n">
-        <v>0.84</v>
+        <v>4.04</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.15</v>
@@ -1501,10 +1501,10 @@
         <v>2.02</v>
       </c>
       <c r="K19" t="n">
-        <v>6.45</v>
+        <v>0.08</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06</v>
+        <v>4.56</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
@@ -1618,7 +1618,7 @@
         <v>1.26</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.25</v>
+        <v>3.25</v>
       </c>
       <c r="M21" t="n">
         <v>0.5</v>
@@ -1673,10 +1673,10 @@
         <v>3.27</v>
       </c>
       <c r="K22" t="n">
-        <v>5.66</v>
+        <v>1.06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1790,7 +1790,7 @@
         <v>0.96</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.29</v>
@@ -1845,10 +1845,10 @@
         <v>1.88</v>
       </c>
       <c r="K25" t="n">
-        <v>5.21</v>
+        <v>1.32</v>
       </c>
       <c r="L25" t="n">
-        <v>0.94</v>
+        <v>3.68</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1962,7 +1962,7 @@
         <v>1.03</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>2.19</v>
       </c>
       <c r="K28" t="n">
-        <v>4.72</v>
+        <v>0.94</v>
       </c>
       <c r="L28" t="n">
-        <v>0.66</v>
+        <v>3.34</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
